--- a/MC_SCRIPTS/Event_Details_NSA_final.xlsx
+++ b/MC_SCRIPTS/Event_Details_NSA_final.xlsx
@@ -31,9 +31,6 @@
     <t>Tihar Introduction</t>
   </si>
   <si>
-    <t>Fashion Show</t>
-  </si>
-  <si>
     <t>Dinner</t>
   </si>
   <si>
@@ -199,7 +196,10 @@
     <t xml:space="preserve">Decoration manager: Sunil </t>
   </si>
   <si>
-    <t>Choreography: Euraz, Jyotshana</t>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Cultural Show</t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,19 +615,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -652,16 +652,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6">
         <v>0.25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -675,10 +675,10 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -686,16 +686,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>0.25694444444444448</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -709,10 +709,10 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.4">
@@ -720,16 +720,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9">
         <v>0.2673611111111111</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -737,16 +737,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="9">
         <v>0.2722222222222222</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C9" s="9">
         <v>0.27777777777777779</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -771,16 +771,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="9">
         <v>0.28472222222222221</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -788,16 +788,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="9">
         <v>0.30902777777777779</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -805,16 +805,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9">
         <v>0.31388888888888888</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -822,16 +822,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="9">
         <v>0.31944444444444448</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -839,16 +839,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="9">
         <v>0.32430555555555557</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -856,16 +856,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="9">
         <v>0.33333333333333331</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -873,16 +873,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="9">
         <v>0.34375</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -890,14 +890,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -906,76 +906,76 @@
     </row>
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -984,7 +984,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/MC_SCRIPTS/Event_Details_NSA_final.xlsx
+++ b/MC_SCRIPTS/Event_Details_NSA_final.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Stage decoration</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decoration manager: Sunil </t>
-  </si>
-  <si>
-    <t>q</t>
   </si>
   <si>
     <t>Cultural Show</t>
@@ -598,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="9">
         <v>0.27777777777777779</v>
@@ -981,11 +978,6 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
